--- a/data/Map120.xlsx
+++ b/data/Map120.xlsx
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,97 +419,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>

--- a/data/Map120.xlsx
+++ b/data/Map120.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Chapter9-1</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>&lt;enemy:99&gt;&lt;CG不透明度:1,255&gt;&lt;CG不透明度:2,100&gt;</t>
+  </si>
+  <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
   </si>
   <si>
     <t>クラスタ</t>
@@ -42,31 +45,64 @@
     <t>自動</t>
   </si>
   <si>
+    <t>ーーーーーーーーアイテム生成数ーーーーーーーー</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 1 1 0 3 0 0</t>
   </si>
   <si>
+    <t>ーーーーーーーー魔物生成数ーーーーーーーー</t>
+  </si>
+  <si>
+    <t>夢喰い</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 10 1 2 3 0 0</t>
   </si>
   <si>
+    <t>大夢喰い</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 11 1 2 3 0 0</t>
   </si>
   <si>
+    <t>スイーパー</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 37 1 2 3 0 0</t>
   </si>
   <si>
+    <t>デスコッコ</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 34 1 2 3 0 0</t>
   </si>
   <si>
+    <t>ニャントム</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 32 1 2 3 0 0</t>
   </si>
   <si>
+    <t>コレクター</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 36 1 2 3 0 0</t>
   </si>
   <si>
+    <t>リーパー</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 46 1 2 3 0 0</t>
   </si>
   <si>
+    <t>ミャウラージ</t>
+  </si>
+  <si>
     <t>ERS_テンプレートランダム生成 33 1 2 3 0 0</t>
+  </si>
+  <si>
+    <t>ドゥドゥル</t>
   </si>
   <si>
     <t>ERS_テンプレートランダム生成 35 1 2 3 0 0</t>
@@ -411,7 +447,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,102 +455,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
